--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col2a1-Tnfrsf10b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col2a1-Tnfrsf10b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Tnfrsf10b</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07108</v>
+        <v>0.02601433333333333</v>
       </c>
       <c r="H2">
-        <v>0.21324</v>
+        <v>0.078043</v>
       </c>
       <c r="I2">
-        <v>0.09618084380152485</v>
+        <v>0.0274105682925934</v>
       </c>
       <c r="J2">
-        <v>0.0966656602993535</v>
+        <v>0.02930649836480982</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.08067733333333</v>
+        <v>12.00066966666667</v>
       </c>
       <c r="N2">
-        <v>39.24203199999999</v>
+        <v>36.002009</v>
       </c>
       <c r="O2">
-        <v>0.6621446251628267</v>
+        <v>0.5748784227928109</v>
       </c>
       <c r="P2">
-        <v>0.6859835984989974</v>
+        <v>0.6172256664730859</v>
       </c>
       <c r="Q2">
-        <v>0.9297745448533333</v>
+        <v>0.3121894209318889</v>
       </c>
       <c r="R2">
-        <v>8.36797090368</v>
+        <v>2.809704788387</v>
       </c>
       <c r="S2">
-        <v>0.06368562876680506</v>
+        <v>0.01575774426790073</v>
       </c>
       <c r="T2">
-        <v>0.06631105750343218</v>
+        <v>0.01808872298521214</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07108</v>
+        <v>0.02601433333333333</v>
       </c>
       <c r="H3">
-        <v>0.21324</v>
+        <v>0.078043</v>
       </c>
       <c r="I3">
-        <v>0.09618084380152485</v>
+        <v>0.0274105682925934</v>
       </c>
       <c r="J3">
-        <v>0.0966656602993535</v>
+        <v>0.02930649836480982</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>11.727564</v>
       </c>
       <c r="O3">
-        <v>0.1978833172770733</v>
+        <v>0.1872652022147361</v>
       </c>
       <c r="P3">
-        <v>0.2050076447200108</v>
+        <v>0.2010597104735397</v>
       </c>
       <c r="Q3">
-        <v>0.27786508304</v>
+        <v>0.1016949196946667</v>
       </c>
       <c r="R3">
-        <v>2.50078574736</v>
+        <v>0.915254277252</v>
       </c>
       <c r="S3">
-        <v>0.01903258442995377</v>
+        <v>0.005133045614133337</v>
       </c>
       <c r="T3">
-        <v>0.01981719934327512</v>
+        <v>0.005892356076221926</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07108</v>
+        <v>0.02601433333333333</v>
       </c>
       <c r="H4">
-        <v>0.21324</v>
+        <v>0.078043</v>
       </c>
       <c r="I4">
-        <v>0.09618084380152485</v>
+        <v>0.0274105682925934</v>
       </c>
       <c r="J4">
-        <v>0.0966656602993535</v>
+        <v>0.02930649836480982</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.4136356666666667</v>
+        <v>0.426855</v>
       </c>
       <c r="N4">
-        <v>1.240907</v>
+        <v>1.280565</v>
       </c>
       <c r="O4">
-        <v>0.02093826080099338</v>
+        <v>0.02044800298460221</v>
       </c>
       <c r="P4">
-        <v>0.02169209406033295</v>
+        <v>0.02195426331866944</v>
       </c>
       <c r="Q4">
-        <v>0.02940122318666667</v>
+        <v>0.011104348255</v>
       </c>
       <c r="R4">
-        <v>0.26461100868</v>
+        <v>0.099939134295</v>
       </c>
       <c r="S4">
-        <v>0.002013859591575935</v>
+        <v>0.0005604913822565927</v>
       </c>
       <c r="T4">
-        <v>0.002096880595617768</v>
+        <v>0.0006434025820491903</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.07108</v>
+        <v>0.02601433333333333</v>
       </c>
       <c r="H5">
-        <v>0.21324</v>
+        <v>0.078043</v>
       </c>
       <c r="I5">
-        <v>0.09618084380152485</v>
+        <v>0.0274105682925934</v>
       </c>
       <c r="J5">
-        <v>0.0966656602993535</v>
+        <v>0.02930649836480982</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.0595505</v>
+        <v>4.296669</v>
       </c>
       <c r="N5">
-        <v>4.119101000000001</v>
+        <v>8.593337999999999</v>
       </c>
       <c r="O5">
-        <v>0.1042545625944966</v>
+        <v>0.2058270385396629</v>
       </c>
       <c r="P5">
-        <v>0.07200533669002714</v>
+        <v>0.1473259110145352</v>
       </c>
       <c r="Q5">
-        <v>0.14639284954</v>
+        <v>0.111774979589</v>
       </c>
       <c r="R5">
-        <v>0.8783570972400002</v>
+        <v>0.670649877534</v>
       </c>
       <c r="S5">
-        <v>0.01002729180049757</v>
+        <v>0.005641836096353684</v>
       </c>
       <c r="T5">
-        <v>0.006960443416218738</v>
+        <v>0.004317606570241592</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.07108</v>
+        <v>0.02601433333333333</v>
       </c>
       <c r="H6">
-        <v>0.21324</v>
+        <v>0.078043</v>
       </c>
       <c r="I6">
-        <v>0.09618084380152485</v>
+        <v>0.0274105682925934</v>
       </c>
       <c r="J6">
-        <v>0.0966656602993535</v>
+        <v>0.02930649836480982</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2919640000000001</v>
+        <v>0.241762</v>
       </c>
       <c r="N6">
-        <v>0.8758920000000001</v>
+        <v>0.7252860000000001</v>
       </c>
       <c r="O6">
-        <v>0.01477923416461</v>
+        <v>0.01158133346818803</v>
       </c>
       <c r="P6">
-        <v>0.01531132603063175</v>
+        <v>0.01243444872016999</v>
       </c>
       <c r="Q6">
-        <v>0.02075280112</v>
+        <v>0.006289277255333335</v>
       </c>
       <c r="R6">
-        <v>0.18677521008</v>
+        <v>0.05660349529800001</v>
       </c>
       <c r="S6">
-        <v>0.001421479212692514</v>
+        <v>0.0003174509319490656</v>
       </c>
       <c r="T6">
-        <v>0.001480079440809697</v>
+        <v>0.0003644101510849735</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5974876666666668</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H7">
         <v>1.792463</v>
       </c>
       <c r="I7">
-        <v>0.8084815410946006</v>
+        <v>0.6295558791108344</v>
       </c>
       <c r="J7">
-        <v>0.8125568348206719</v>
+        <v>0.6731009056351255</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.08067733333333</v>
+        <v>12.00066966666667</v>
       </c>
       <c r="N7">
-        <v>39.24203199999999</v>
+        <v>36.002009</v>
       </c>
       <c r="O7">
-        <v>0.6621446251628267</v>
+        <v>0.5748784227928109</v>
       </c>
       <c r="P7">
-        <v>0.6859835984989974</v>
+        <v>0.6172256664730859</v>
       </c>
       <c r="Q7">
-        <v>7.815543378312889</v>
+        <v>7.170252117574111</v>
       </c>
       <c r="R7">
-        <v>70.33989040481599</v>
+        <v>64.532269058167</v>
       </c>
       <c r="S7">
-        <v>0.5353317069791488</v>
+        <v>0.361918090843178</v>
       </c>
       <c r="T7">
-        <v>0.5574006615352399</v>
+        <v>0.415455155084278</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5974876666666668</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H8">
         <v>1.792463</v>
       </c>
       <c r="I8">
-        <v>0.8084815410946006</v>
+        <v>0.6295558791108344</v>
       </c>
       <c r="J8">
-        <v>0.8125568348206719</v>
+        <v>0.6731009056351255</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>11.727564</v>
       </c>
       <c r="O8">
-        <v>0.1978833172770733</v>
+        <v>0.1872652022147361</v>
       </c>
       <c r="P8">
-        <v>0.2050076447200108</v>
+        <v>0.2010597104735397</v>
       </c>
       <c r="Q8">
-        <v>2.335691616681334</v>
+        <v>2.335691616681333</v>
       </c>
       <c r="R8">
         <v>21.021224550132</v>
       </c>
       <c r="S8">
-        <v>0.15998500930908</v>
+        <v>0.1178939090071664</v>
       </c>
       <c r="T8">
-        <v>0.1665803629077328</v>
+        <v>0.1353334732064757</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5974876666666668</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H9">
         <v>1.792463</v>
       </c>
       <c r="I9">
-        <v>0.8084815410946006</v>
+        <v>0.6295558791108344</v>
       </c>
       <c r="J9">
-        <v>0.8125568348206719</v>
+        <v>0.6731009056351255</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.4136356666666667</v>
+        <v>0.426855</v>
       </c>
       <c r="N9">
-        <v>1.240907</v>
+        <v>1.280565</v>
       </c>
       <c r="O9">
-        <v>0.02093826080099338</v>
+        <v>0.02044800298460221</v>
       </c>
       <c r="P9">
-        <v>0.02169209406033295</v>
+        <v>0.02195426331866944</v>
       </c>
       <c r="Q9">
-        <v>0.2471422093267778</v>
+        <v>0.255040597955</v>
       </c>
       <c r="R9">
-        <v>2.224279883941</v>
+        <v>2.295365381595</v>
       </c>
       <c r="S9">
-        <v>0.01692819736022779</v>
+        <v>0.01287316049503221</v>
       </c>
       <c r="T9">
-        <v>0.01762605929029644</v>
+        <v>0.01477743452234842</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5974876666666668</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H10">
         <v>1.792463</v>
       </c>
       <c r="I10">
-        <v>0.8084815410946006</v>
+        <v>0.6295558791108344</v>
       </c>
       <c r="J10">
-        <v>0.8125568348206719</v>
+        <v>0.6731009056351255</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.0595505</v>
+        <v>4.296669</v>
       </c>
       <c r="N10">
-        <v>4.119101000000001</v>
+        <v>8.593337999999999</v>
       </c>
       <c r="O10">
-        <v>0.1042545625944966</v>
+        <v>0.2058270385396629</v>
       </c>
       <c r="P10">
-        <v>0.07200533669002714</v>
+        <v>0.1473259110145352</v>
       </c>
       <c r="Q10">
-        <v>1.230556022627167</v>
+        <v>2.567206735249</v>
       </c>
       <c r="R10">
-        <v>7.383336135763002</v>
+        <v>15.403240411494</v>
       </c>
       <c r="S10">
-        <v>0.08428788943254209</v>
+        <v>0.1295796221926171</v>
       </c>
       <c r="T10">
-        <v>0.05850842847104525</v>
+        <v>0.09916520412740353</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5974876666666668</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H11">
         <v>1.792463</v>
       </c>
       <c r="I11">
-        <v>0.8084815410946006</v>
+        <v>0.6295558791108344</v>
       </c>
       <c r="J11">
-        <v>0.8125568348206719</v>
+        <v>0.6731009056351255</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.2919640000000001</v>
+        <v>0.241762</v>
       </c>
       <c r="N11">
-        <v>0.8758920000000001</v>
+        <v>0.7252860000000001</v>
       </c>
       <c r="O11">
-        <v>0.01477923416461</v>
+        <v>0.01158133346818803</v>
       </c>
       <c r="P11">
-        <v>0.01531132603063175</v>
+        <v>0.01243444872016999</v>
       </c>
       <c r="Q11">
-        <v>0.1744448891106667</v>
+        <v>0.1444498132686667</v>
       </c>
       <c r="R11">
-        <v>1.570004001996</v>
+        <v>1.300048319418</v>
       </c>
       <c r="S11">
-        <v>0.01194873801360186</v>
+        <v>0.007291096572840844</v>
       </c>
       <c r="T11">
-        <v>0.01244132261635749</v>
+        <v>0.008369638694619951</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.0111195</v>
+        <v>0.02748066666666667</v>
       </c>
       <c r="H12">
-        <v>0.022239</v>
+        <v>0.082442</v>
       </c>
       <c r="I12">
-        <v>0.01504618588422982</v>
+        <v>0.02895560231126412</v>
       </c>
       <c r="J12">
-        <v>0.01008135255766893</v>
+        <v>0.03095839906451124</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.08067733333333</v>
+        <v>12.00066966666667</v>
       </c>
       <c r="N12">
-        <v>39.24203199999999</v>
+        <v>36.002009</v>
       </c>
       <c r="O12">
-        <v>0.6621446251628267</v>
+        <v>0.5748784227928109</v>
       </c>
       <c r="P12">
-        <v>0.6859835984989974</v>
+        <v>0.6172256664730859</v>
       </c>
       <c r="Q12">
-        <v>0.145450591608</v>
+        <v>0.3297864028864445</v>
       </c>
       <c r="R12">
-        <v>0.8727035496479999</v>
+        <v>2.968077625978</v>
       </c>
       <c r="S12">
-        <v>0.009962751112443567</v>
+        <v>0.01664595098771538</v>
       </c>
       <c r="T12">
-        <v>0.006915642505246802</v>
+        <v>0.01910831849553271</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.0111195</v>
+        <v>0.02748066666666667</v>
       </c>
       <c r="H13">
-        <v>0.022239</v>
+        <v>0.082442</v>
       </c>
       <c r="I13">
-        <v>0.01504618588422982</v>
+        <v>0.02895560231126412</v>
       </c>
       <c r="J13">
-        <v>0.01008135255766893</v>
+        <v>0.03095839906451124</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>11.727564</v>
       </c>
       <c r="O13">
-        <v>0.1978833172770733</v>
+        <v>0.1872652022147361</v>
       </c>
       <c r="P13">
-        <v>0.2050076447200108</v>
+        <v>0.2010597104735397</v>
       </c>
       <c r="Q13">
-        <v>0.04346821596600001</v>
+        <v>0.1074270923653333</v>
       </c>
       <c r="R13">
-        <v>0.260809295796</v>
+        <v>0.9668438312880001</v>
       </c>
       <c r="S13">
-        <v>0.00297738917513887</v>
+        <v>0.005422376722068354</v>
       </c>
       <c r="T13">
-        <v>0.002066754343439764</v>
+        <v>0.006224486752634931</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.0111195</v>
+        <v>0.02748066666666667</v>
       </c>
       <c r="H14">
-        <v>0.022239</v>
+        <v>0.082442</v>
       </c>
       <c r="I14">
-        <v>0.01504618588422982</v>
+        <v>0.02895560231126412</v>
       </c>
       <c r="J14">
-        <v>0.01008135255766893</v>
+        <v>0.03095839906451124</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.4136356666666667</v>
+        <v>0.426855</v>
       </c>
       <c r="N14">
-        <v>1.240907</v>
+        <v>1.280565</v>
       </c>
       <c r="O14">
-        <v>0.02093826080099338</v>
+        <v>0.02044800298460221</v>
       </c>
       <c r="P14">
-        <v>0.02169209406033295</v>
+        <v>0.02195426331866944</v>
       </c>
       <c r="Q14">
-        <v>0.0045994217955</v>
+        <v>0.01173025997</v>
       </c>
       <c r="R14">
-        <v>0.027596530773</v>
+        <v>0.10557233973</v>
       </c>
       <c r="S14">
-        <v>0.0003150409641042291</v>
+        <v>0.0005920842424816834</v>
       </c>
       <c r="T14">
-        <v>0.0002186856479363325</v>
+        <v>0.0006796688449867296</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.0111195</v>
+        <v>0.02748066666666667</v>
       </c>
       <c r="H15">
-        <v>0.022239</v>
+        <v>0.082442</v>
       </c>
       <c r="I15">
-        <v>0.01504618588422982</v>
+        <v>0.02895560231126412</v>
       </c>
       <c r="J15">
-        <v>0.01008135255766893</v>
+        <v>0.03095839906451124</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.0595505</v>
+        <v>4.296669</v>
       </c>
       <c r="N15">
-        <v>4.119101000000001</v>
+        <v>8.593337999999999</v>
       </c>
       <c r="O15">
-        <v>0.1042545625944966</v>
+        <v>0.2058270385396629</v>
       </c>
       <c r="P15">
-        <v>0.07200533669002714</v>
+        <v>0.1473259110145352</v>
       </c>
       <c r="Q15">
-        <v>0.02290117178475001</v>
+        <v>0.118075328566</v>
       </c>
       <c r="R15">
-        <v>0.09160468713900002</v>
+        <v>0.7084519713959999</v>
       </c>
       <c r="S15">
-        <v>0.001568633528075868</v>
+        <v>0.005959845872859712</v>
       </c>
       <c r="T15">
-        <v>0.0007259111852058174</v>
+        <v>0.004560974345730652</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.0111195</v>
+        <v>0.02748066666666667</v>
       </c>
       <c r="H16">
-        <v>0.022239</v>
+        <v>0.082442</v>
       </c>
       <c r="I16">
-        <v>0.01504618588422982</v>
+        <v>0.02895560231126412</v>
       </c>
       <c r="J16">
-        <v>0.01008135255766893</v>
+        <v>0.03095839906451124</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.2919640000000001</v>
+        <v>0.241762</v>
       </c>
       <c r="N16">
-        <v>0.8758920000000001</v>
+        <v>0.7252860000000001</v>
       </c>
       <c r="O16">
-        <v>0.01477923416461</v>
+        <v>0.01158133346818803</v>
       </c>
       <c r="P16">
-        <v>0.01531132603063175</v>
+        <v>0.01243444872016999</v>
       </c>
       <c r="Q16">
-        <v>0.003246493698000001</v>
+        <v>0.006643780934666668</v>
       </c>
       <c r="R16">
-        <v>0.019478962188</v>
+        <v>0.05979402841200001</v>
       </c>
       <c r="S16">
-        <v>0.000222371104467282</v>
+        <v>0.0003353444861389858</v>
       </c>
       <c r="T16">
-        <v>0.0001543588758402122</v>
+        <v>0.0003849506256262238</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.05933733333333333</v>
+        <v>0.1841935</v>
       </c>
       <c r="H17">
-        <v>0.178012</v>
+        <v>0.368387</v>
       </c>
       <c r="I17">
-        <v>0.08029142921964472</v>
+        <v>0.1940794886460722</v>
       </c>
       <c r="J17">
-        <v>0.08069615232230591</v>
+        <v>0.1383356997183245</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.08067733333333</v>
+        <v>12.00066966666667</v>
       </c>
       <c r="N17">
-        <v>39.24203199999999</v>
+        <v>36.002009</v>
       </c>
       <c r="O17">
-        <v>0.6621446251628267</v>
+        <v>0.5748784227928109</v>
       </c>
       <c r="P17">
-        <v>0.6859835984989974</v>
+        <v>0.6172256664730859</v>
       </c>
       <c r="Q17">
-        <v>0.7761725111537777</v>
+        <v>2.210445348247167</v>
       </c>
       <c r="R17">
-        <v>6.985552600384</v>
+        <v>13.262672089483</v>
       </c>
       <c r="S17">
-        <v>0.05316453830442928</v>
+        <v>0.1115721103292892</v>
       </c>
       <c r="T17">
-        <v>0.05535623695507863</v>
+        <v>0.08538434445566349</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.05933733333333333</v>
+        <v>0.1841935</v>
       </c>
       <c r="H18">
-        <v>0.178012</v>
+        <v>0.368387</v>
       </c>
       <c r="I18">
-        <v>0.08029142921964472</v>
+        <v>0.1940794886460722</v>
       </c>
       <c r="J18">
-        <v>0.08069615232230591</v>
+        <v>0.1383356997183245</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>11.727564</v>
       </c>
       <c r="O18">
-        <v>0.1978833172770733</v>
+        <v>0.1872652022147361</v>
       </c>
       <c r="P18">
-        <v>0.2050076447200108</v>
+        <v>0.2010597104735397</v>
       </c>
       <c r="Q18">
-        <v>0.2319607914186667</v>
+        <v>0.7200470198780001</v>
       </c>
       <c r="R18">
-        <v>2.087647122768</v>
+        <v>4.320282119268001</v>
       </c>
       <c r="S18">
-        <v>0.01588833436290063</v>
+        <v>0.03634433468703928</v>
       </c>
       <c r="T18">
-        <v>0.01654332812556317</v>
+        <v>0.02781373573352084</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.05933733333333333</v>
+        <v>0.1841935</v>
       </c>
       <c r="H19">
-        <v>0.178012</v>
+        <v>0.368387</v>
       </c>
       <c r="I19">
-        <v>0.08029142921964472</v>
+        <v>0.1940794886460722</v>
       </c>
       <c r="J19">
-        <v>0.08069615232230591</v>
+        <v>0.1383356997183245</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.4136356666666667</v>
+        <v>0.426855</v>
       </c>
       <c r="N19">
-        <v>1.240907</v>
+        <v>1.280565</v>
       </c>
       <c r="O19">
-        <v>0.02093826080099338</v>
+        <v>0.02044800298460221</v>
       </c>
       <c r="P19">
-        <v>0.02169209406033295</v>
+        <v>0.02195426331866944</v>
       </c>
       <c r="Q19">
-        <v>0.02454403743155556</v>
+        <v>0.0786239164425</v>
       </c>
       <c r="R19">
-        <v>0.220896336884</v>
+        <v>0.471743498655</v>
       </c>
       <c r="S19">
-        <v>0.001681162885085421</v>
+        <v>0.003968537963084955</v>
       </c>
       <c r="T19">
-        <v>0.001750468526482415</v>
+        <v>0.003037058377988482</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.05933733333333333</v>
+        <v>0.1841935</v>
       </c>
       <c r="H20">
-        <v>0.178012</v>
+        <v>0.368387</v>
       </c>
       <c r="I20">
-        <v>0.08029142921964472</v>
+        <v>0.1940794886460722</v>
       </c>
       <c r="J20">
-        <v>0.08069615232230591</v>
+        <v>0.1383356997183245</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.0595505</v>
+        <v>4.296669</v>
       </c>
       <c r="N20">
-        <v>4.119101000000001</v>
+        <v>8.593337999999999</v>
       </c>
       <c r="O20">
-        <v>0.1042545625944966</v>
+        <v>0.2058270385396629</v>
       </c>
       <c r="P20">
-        <v>0.07200533669002714</v>
+        <v>0.1473259110145352</v>
       </c>
       <c r="Q20">
-        <v>0.1222082345353333</v>
+        <v>0.7914185014514999</v>
       </c>
       <c r="R20">
-        <v>0.7332494072120002</v>
+        <v>3.165674005806</v>
       </c>
       <c r="S20">
-        <v>0.008370747833381041</v>
+        <v>0.03994680638931316</v>
       </c>
       <c r="T20">
-        <v>0.005810553617557352</v>
+        <v>0.02038043298683533</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.1841935</v>
+      </c>
+      <c r="H21">
+        <v>0.368387</v>
+      </c>
+      <c r="I21">
+        <v>0.1940794886460722</v>
+      </c>
+      <c r="J21">
+        <v>0.1383356997183245</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.241762</v>
+      </c>
+      <c r="N21">
+        <v>0.7252860000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.01158133346818803</v>
+      </c>
+      <c r="P21">
+        <v>0.01243444872016999</v>
+      </c>
+      <c r="Q21">
+        <v>0.04453098894700001</v>
+      </c>
+      <c r="R21">
+        <v>0.2671859336820001</v>
+      </c>
+      <c r="S21">
+        <v>0.002247699277345574</v>
+      </c>
+      <c r="T21">
+        <v>0.00172012816431634</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.113886</v>
+      </c>
+      <c r="H22">
+        <v>0.341658</v>
+      </c>
+      <c r="I22">
+        <v>0.1199984616392358</v>
+      </c>
+      <c r="J22">
+        <v>0.1282984972172289</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>12.00066966666667</v>
+      </c>
+      <c r="N22">
+        <v>36.002009</v>
+      </c>
+      <c r="O22">
+        <v>0.5748784227928109</v>
+      </c>
+      <c r="P22">
+        <v>0.6172256664730859</v>
+      </c>
+      <c r="Q22">
+        <v>1.366708265658</v>
+      </c>
+      <c r="R22">
+        <v>12.300374390922</v>
+      </c>
+      <c r="S22">
+        <v>0.06898452636472747</v>
+      </c>
+      <c r="T22">
+        <v>0.07918912545239945</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.113886</v>
+      </c>
+      <c r="H23">
+        <v>0.341658</v>
+      </c>
+      <c r="I23">
+        <v>0.1199984616392358</v>
+      </c>
+      <c r="J23">
+        <v>0.1282984972172289</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.909188</v>
+      </c>
+      <c r="N23">
+        <v>11.727564</v>
+      </c>
+      <c r="O23">
+        <v>0.1872652022147361</v>
+      </c>
+      <c r="P23">
+        <v>0.2010597104735397</v>
+      </c>
+      <c r="Q23">
+        <v>0.445201784568</v>
+      </c>
+      <c r="R23">
+        <v>4.006816061112001</v>
+      </c>
+      <c r="S23">
+        <v>0.02247153618432874</v>
+      </c>
+      <c r="T23">
+        <v>0.02579565870468627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.113886</v>
+      </c>
+      <c r="H24">
+        <v>0.341658</v>
+      </c>
+      <c r="I24">
+        <v>0.1199984616392358</v>
+      </c>
+      <c r="J24">
+        <v>0.1282984972172289</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.426855</v>
+      </c>
+      <c r="N24">
+        <v>1.280565</v>
+      </c>
+      <c r="O24">
+        <v>0.02044800298460221</v>
+      </c>
+      <c r="P24">
+        <v>0.02195426331866944</v>
+      </c>
+      <c r="Q24">
+        <v>0.04861280853</v>
+      </c>
+      <c r="R24">
+        <v>0.43751527677</v>
+      </c>
+      <c r="S24">
+        <v>0.002453728901746767</v>
+      </c>
+      <c r="T24">
+        <v>0.002816698991296622</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.05933733333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.178012</v>
-      </c>
-      <c r="I21">
-        <v>0.08029142921964472</v>
-      </c>
-      <c r="J21">
-        <v>0.08069615232230591</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.2919640000000001</v>
-      </c>
-      <c r="N21">
-        <v>0.8758920000000001</v>
-      </c>
-      <c r="O21">
-        <v>0.01477923416461</v>
-      </c>
-      <c r="P21">
-        <v>0.01531132603063175</v>
-      </c>
-      <c r="Q21">
-        <v>0.01732436518933334</v>
-      </c>
-      <c r="R21">
-        <v>0.155919286704</v>
-      </c>
-      <c r="S21">
-        <v>0.001186645833848339</v>
-      </c>
-      <c r="T21">
-        <v>0.001235565097624347</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.113886</v>
+      </c>
+      <c r="H25">
+        <v>0.341658</v>
+      </c>
+      <c r="I25">
+        <v>0.1199984616392358</v>
+      </c>
+      <c r="J25">
+        <v>0.1282984972172289</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.296669</v>
+      </c>
+      <c r="N25">
+        <v>8.593337999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.2058270385396629</v>
+      </c>
+      <c r="P25">
+        <v>0.1473259110145352</v>
+      </c>
+      <c r="Q25">
+        <v>0.489330445734</v>
+      </c>
+      <c r="R25">
+        <v>2.935982674404</v>
+      </c>
+      <c r="S25">
+        <v>0.02469892798851924</v>
+      </c>
+      <c r="T25">
+        <v>0.01890169298432405</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.113886</v>
+      </c>
+      <c r="H26">
+        <v>0.341658</v>
+      </c>
+      <c r="I26">
+        <v>0.1199984616392358</v>
+      </c>
+      <c r="J26">
+        <v>0.1282984972172289</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.241762</v>
+      </c>
+      <c r="N26">
+        <v>0.7252860000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.01158133346818803</v>
+      </c>
+      <c r="P26">
+        <v>0.01243444872016999</v>
+      </c>
+      <c r="Q26">
+        <v>0.027533307132</v>
+      </c>
+      <c r="R26">
+        <v>0.247799764188</v>
+      </c>
+      <c r="S26">
+        <v>0.001389742199913559</v>
+      </c>
+      <c r="T26">
+        <v>0.001595321084522505</v>
       </c>
     </row>
   </sheetData>
